--- a/src/test/java/data/UserRegistrationData.xlsx
+++ b/src/test/java/data/UserRegistrationData.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
-  <si>
-    <t>test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Marian</t>
   </si>
@@ -25,25 +22,37 @@
     <t>Sultan</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>testgmail.com</t>
-  </si>
-  <si>
-    <t>test@hotmail.com</t>
-  </si>
-  <si>
-    <t>marian</t>
-  </si>
-  <si>
-    <t>sultan</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>selenium-automation</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>test.test@example.com</t>
+  </si>
+  <si>
+    <t>test@subdomain.example.com</t>
+  </si>
+  <si>
+    <t>test+test@example.com</t>
+  </si>
+  <si>
+    <t>"test"@example.com</t>
+  </si>
+  <si>
+    <t>123@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ___@example.com</t>
+  </si>
+  <si>
+    <t>test@example.com.eg</t>
+  </si>
+  <si>
+    <t>test-test@example.com.eg</t>
   </si>
 </sst>
 </file>
@@ -88,11 +97,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -400,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,140 +418,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>1225369841</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1225369841</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D3">
+        <v>1225369841</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4">
+        <v>1225369841</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5">
+        <v>1225369841</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
+      <c r="A6" t="s">
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6">
+        <v>1225369841</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1225369841</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1225369841</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1225369841</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>